--- a/myapp-container/コンテナ全体図.xlsx
+++ b/myapp-container/コンテナ全体図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ison\webAppTemplate\myapp-container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0261099-921F-4A7F-A6AE-926807C6745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E5115-8D6F-443A-8BB5-EAC833E6F5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08056B19-F9A3-45A7-AF90-EB4702CF8A07}"/>
   </bookViews>
@@ -962,14 +962,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168216</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63227</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>230875</xdr:rowOff>
+      <xdr:rowOff>145150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -984,7 +984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511741" y="790575"/>
+          <a:off x="5511741" y="704850"/>
           <a:ext cx="837986" cy="392800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1031,101 +1031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>130115</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0586E345-7214-4886-951C-DDDFFB1E6365}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5787965" y="1428750"/>
-          <a:ext cx="1574860" cy="392800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>xdebug</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>9001</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1140,7 +1055,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="733425"/>
+          <a:off x="6200775" y="647700"/>
           <a:ext cx="1209675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1174,76 +1089,6 @@
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
             <a:t>19000</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08435EFE-9B87-49A4-B7A9-F044714F3B38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391275" y="1838325"/>
-          <a:ext cx="1209675" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>19001</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
             <a:latin typeface="+mn-ea"/>
@@ -1557,7 +1402,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
